--- a/Librarie/Excel/librarie.xlsx
+++ b/Librarie/Excel/librarie.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab106(35)\Desktop\CollegePractice\CollegePractice\CollegePractice\Librarie\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab106(35)\Desktop\CollegePractice\Librarie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54B4E8-B07E-40EE-ACAC-6A25E77A2F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15340E1-DC2D-4706-8174-59880AE30DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Carti" sheetId="3" r:id="rId1"/>
-    <sheet name="Statistica" sheetId="8" r:id="rId2"/>
-    <sheet name="Supplier" sheetId="4" r:id="rId3"/>
-    <sheet name="Limbe" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Foaie1" sheetId="9" r:id="rId1"/>
+    <sheet name="Carti" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistica" sheetId="8" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="4" r:id="rId4"/>
+    <sheet name="Limbe" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Carti'!$A$1:$H$20</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Supplier!$A$1:$D$6</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Carti'!$A$1:$H$20</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Supplier!$A$1:$D$6</definedName>
+    <definedName name="zece">INDEX('Carti'!$I:$I,MATCH('Carti'!$Y$3,Carti[Nume]))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,8 +59,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="119">
   <si>
     <t>TheGreatGatsby</t>
   </si>
@@ -405,38 +429,23 @@
     <t>RUSA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Combobox)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Lista cărților furnizate de același furnizor</t>
-    </r>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alege cartea:</t>
+  </si>
+  <si>
+    <t>CARTI</t>
+  </si>
+  <si>
+    <t>id_sup:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +531,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +563,32 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="8" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -569,6 +611,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,7 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
@@ -611,6 +681,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bun" xfId="1" builtinId="26"/>
@@ -1773,6 +1859,10 @@
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="Foaie1!$I$2" fmlaRange="Foaie1!$E$1:$E$5" noThreeD="1" sel="4" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3202,6 +3292,137 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1454728</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B945E8D2-C78F-408F-8FE1-2B4C409B45E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24868910" y="1316182"/>
+          <a:ext cx="1246909" cy="1073727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ro-RO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>963706</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3557,11 +3778,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61368891-F50C-4C0D-A1DA-6BA294FD592E}">
-  <dimension ref="A1:Y20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05A215A-C689-43DE-A40B-55030CC3AF07}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">INDEX(E1:E5,I2,1)</f>
+        <v>VaseaCumparaturi</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19BF0870-A9B4-4FB5-89C6-53DB66EAAA53}">
+          <x14:formula1>
+            <xm:f>Supplier!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61368891-F50C-4C0D-A1DA-6BA294FD592E}">
+  <dimension ref="A1:AD20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,10 +4007,17 @@
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
     <col min="25" max="25" width="53.85546875" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" customWidth="1"/>
+    <col min="29" max="29" width="46.7109375" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -3602,7 +4046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3628,8 +4072,11 @@
         <v>55</v>
       </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3655,11 +4102,14 @@
         <v>58</v>
       </c>
       <c r="I3" s="7"/>
+      <c r="X3" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="Y3" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -3685,8 +4135,14 @@
         <v>61</v>
       </c>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3712,8 +4168,15 @@
         <v>55</v>
       </c>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="3" t="str" cm="1">
+        <f t="array" ref="AC5:AD7">_xlfn._xlws.FILTER(Foaie1!$A$1:$B$19,Foaie1!$B$1:$B$19=Foaie1!$I$2)</f>
+        <v>CarnatTeo</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -3739,8 +4202,14 @@
         <v>55</v>
       </c>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="3" t="str">
+        <v>1964:Eyes_of_the_Sotrm</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -3766,8 +4235,14 @@
         <v>61</v>
       </c>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="3" t="str">
+        <v>Iron_Flame</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3794,7 +4269,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -3821,7 +4296,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -3848,7 +4323,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -3875,7 +4350,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -3902,7 +4377,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -3929,7 +4404,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -3956,7 +4431,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -3983,7 +4458,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -4119,11 +4594,45 @@
       <c r="I20" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{D5EEE544-6223-46E6-9D8D-DF9BFAD2F151}">
+      <formula1>$A$2:$A$20</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Drop Down 3">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>29</xdr:col>
+                    <xdr:colOff>981075</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4146,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B81DD8-12D7-4DBB-B528-62E15A364FB3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4233,12 +4742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B8A869-8E74-4D76-9659-9FD16F40CFE9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C86CD76-9453-4067-8C5B-DBA1FCBEADBC}">
   <dimension ref="A1:A6"/>
   <sheetViews>

--- a/Librarie/Excel/librarie.xlsx
+++ b/Librarie/Excel/librarie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab106(35)\Desktop\CollegePractice\Librarie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15340E1-DC2D-4706-8174-59880AE30DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B88D2-D5D9-44C3-A7FC-337EA866AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <sheet name="Limbe" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="CEVA">INDEX('Carti'!$I$2:$I$20,MATCH('Carti'!$Y$3,'Carti'!$A$2:$A$20))</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Carti'!$A$1:$H$20</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">Supplier!$A$1:$D$6</definedName>
-    <definedName name="zece">INDEX('Carti'!$I:$I,MATCH('Carti'!$Y$3,Carti[Nume]))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>TheGreatGatsby</t>
   </si>
@@ -439,13 +439,16 @@
   </si>
   <si>
     <t>id_sup:</t>
+  </si>
+  <si>
+    <t>Ordine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,15 +511,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -646,7 +640,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
@@ -679,15 +673,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -704,7 +695,34 @@
     <cellStyle name="Intrare" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="-0.249977111117893"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1862,1398 +1880,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="Foaie1!$I$2" fmlaRange="Foaie1!$E$1:$E$5" noThreeD="1" sel="4" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="Foaie1!$I$2" fmlaRange="Foaie1!$E$1:$E$5" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9AB782-1D57-426F-B898-770AD5045993}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="238125"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB056C6-7EC2-4EEB-963D-47E22709EDAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="1304925"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CA063A-0F81-4C77-B3F0-24E058F31834}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="8772525"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94BE8AC-4A3E-4C22-8737-4BCBF66BF164}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="9839325"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F87A394-BD23-4FBA-AF22-07AFB615A8C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="10906125"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53911A6F-DBE1-4E51-BE02-976DB98CC51C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="11972925"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F611C3-C62F-424B-8D18-A5559359AC5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="16240125"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1E1BA7-BDCF-4670-AF89-806E44C868D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="17306925"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C96AB9-3933-4D2C-8884-3E98D77AAC27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="18373725"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6737FB-9C40-47DB-A40A-CEB3D48CA6E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="19440525"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A830CAE3-390F-432D-874E-9FB9E025DBEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="7705725"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7B2AB-0680-4FCE-B484-56081E532952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="6638925"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A445FD-214C-4C30-B92E-3991230A50A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="4505325"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055C73EB-79DE-423A-BAEF-82AB5F6E91DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="5572125"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDE1AD0-5516-48BD-925C-938925FFC77F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="3438525"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1276622-6372-4A66-9BC6-8CBEB5C995DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="2371725"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFE3C84-AA5C-4F86-86E3-81AD0312A100}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="13039725"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A14A1A-66E1-429B-8B0C-95E2718C2DF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="14106525"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65352BC-A00D-4501-8522-55F8862EF1C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10725150" y="15173325"/>
-          <a:ext cx="1238250" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -3272,7 +1903,7 @@
         <xdr:cNvPr id="26" name="Chart 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D2FAB0-A08B-4EEC-B23B-536BC72B4756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,83 +1917,10 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1454728</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B945E8D2-C78F-408F-8FE1-2B4C409B45E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24868910" y="1316182"/>
-          <a:ext cx="1246909" cy="1073727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ro-RO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3376,7 +1934,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>963706</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3388,7 +1946,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3418,6 +1976,1219 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1030111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagine 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963276" y="4562477"/>
+          <a:ext cx="704849" cy="972959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>794385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagine 35" descr="Agenda 2021 - Ultra, Day-at-a-Time - Aurelia - Paperblanks">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10820401" y="5800726"/>
+          <a:ext cx="1028699" cy="565784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58832</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1211356</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>812897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagine 37" descr="Sausage Made Simple - Flocchini Sausage">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10771656" y="6668621"/>
+          <a:ext cx="1152524" cy="766952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>931244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagine 38" descr="Pageturners Bookstore | Fourth Wing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991851" y="7772400"/>
+          <a:ext cx="704849" cy="864569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>995112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagine 39" descr="Paul McCartney va publica un nou volum de fotografii - 1964: Eyes of the  Storm">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934701" y="8801100"/>
+          <a:ext cx="838200" cy="966537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>922912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagine 40" descr="Iron Flame by Rebecca Yarros, Hardcover | Barnes &amp; Noble®">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11077576" y="9886951"/>
+          <a:ext cx="570486" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1038016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagine 41" descr="The Book of Charlie : Wisdom from the Remarkable American Life of a  109-Year-Old Man (Hardcover) - Walmart.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11039475" y="10934701"/>
+          <a:ext cx="657225" cy="1009440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1004545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagine 42" descr="Harry Potter | Harry Potter Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10906125" y="12011026"/>
+          <a:ext cx="723900" cy="966444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1021453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagine 43" descr="The Lord of the Rings: The Fellowship of the Ring (2001) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10953750" y="13068300"/>
+          <a:ext cx="666750" cy="992878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>937932</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>987800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagine 45" descr="paulo coelho - the alchemist - First Edition - AbeBooks">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10917331" y="14108206"/>
+          <a:ext cx="733425" cy="954182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1008305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagine 46" descr="The Handmaid's Tale (TV Series 2017– ) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10953750" y="15192376"/>
+          <a:ext cx="666750" cy="989254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>902258</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagine 47" descr="The Martian (2015) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991850" y="16259175"/>
+          <a:ext cx="635558" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1014070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagine 48" descr="Watch Ready Player One | Prime Video">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934700" y="17354551"/>
+          <a:ext cx="723900" cy="966444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>986228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagine 49" descr="Red Rising: 8601422201284: Pierce Brown: Books - Amazon.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10982325" y="18411825"/>
+          <a:ext cx="628650" cy="948128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1020452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagine 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10944225" y="19469100"/>
+          <a:ext cx="742950" cy="991877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>872227</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>974911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagine 51" descr="The Great Gatsby (2013) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10970560" y="291353"/>
+          <a:ext cx="614491" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>986117</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>994148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagine 52" descr="To Kill a Mockingbird - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10948147" y="1367118"/>
+          <a:ext cx="750794" cy="926912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>862852</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>999724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagine 53" descr="Pride and Prejudice - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10981765" y="2409264"/>
+          <a:ext cx="593911" cy="954901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1040204</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1008529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagine 54" descr="The Catcher in the Rye - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10903324" y="3451411"/>
+          <a:ext cx="849704" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>129188</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>55147</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>1243942</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1019736</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Imagine 23" descr="The Great Gatsby (2013) - IMDb">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A05BB62-2A40-4E3A-88B1-2E3A5E7A7204}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="CEVA" spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="25073482" y="2419588"/>
+              <a:ext cx="1114754" cy="964589"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
@@ -3459,30 +3230,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}" name="Carti" displayName="Carti" ref="A1:I20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}" name="Tabel5" displayName="Tabel5" ref="L1:M20" totalsRowShown="0">
+  <autoFilter ref="L1:M20" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8528086D-77B2-4FF0-95BB-94F67C960DA2}" name="Nume" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0350D85C-A695-4F9C-82B7-A257E6D5952E}" name="Ordine"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}" name="Carti" displayName="Carti" ref="A1:I20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I20" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CC563222-B098-4D38-AFE4-8347877797FD}" uniqueName="1" name="Nume" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5479B87A-A568-4FF1-AF6C-6AF5A0325253}" uniqueName="2" name="Autor" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{65D7075D-00FC-41D3-A25B-D5162A974AED}" uniqueName="3" name="An" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B0E1D44C-427F-45B4-9A02-E3BDAAA0DB42}" uniqueName="4" name="Limba" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{1AC09EC0-8DBB-44FF-9949-D1BCCA568EB0}" uniqueName="5" name="Tip" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E83E9B9D-C877-406F-A06E-F8244B896B58}" uniqueName="6" name="Pret" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{C8250505-CF37-45F3-94B2-160167738E35}" uniqueName="7" name="Copii" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{DC1BE33A-D8EF-4906-9184-F8A5B732C8FB}" uniqueName="8" name="Sup_id" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{F5F60F92-AAF0-4D82-90A9-44229CBC0761}" uniqueName="9" name="Coperta" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CC563222-B098-4D38-AFE4-8347877797FD}" uniqueName="1" name="Nume" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5479B87A-A568-4FF1-AF6C-6AF5A0325253}" uniqueName="2" name="Autor" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{65D7075D-00FC-41D3-A25B-D5162A974AED}" uniqueName="3" name="An" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B0E1D44C-427F-45B4-9A02-E3BDAAA0DB42}" uniqueName="4" name="Limba" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1AC09EC0-8DBB-44FF-9949-D1BCCA568EB0}" uniqueName="5" name="Tip" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E83E9B9D-C877-406F-A06E-F8244B896B58}" uniqueName="6" name="Pret" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C8250505-CF37-45F3-94B2-160167738E35}" uniqueName="7" name="Copii" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DC1BE33A-D8EF-4906-9184-F8A5B732C8FB}" uniqueName="8" name="Sup_id" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{F5F60F92-AAF0-4D82-90A9-44229CBC0761}" uniqueName="9" name="Coperta" queryTableFieldId="9" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0455BBE5-B0A2-407E-84F7-AE30C25518D6}" name="Table4" displayName="Table4" ref="A1:C5" totalsRowShown="0">
   <autoFilter ref="A1:C5" xr:uid="{0455BBE5-B0A2-407E-84F7-AE30C25518D6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BD129767-CCC1-4593-9478-2AF6B4DF31D9}" name="Limba"/>
     <tableColumn id="2" xr3:uid="{5C13F366-E979-4357-B093-F09E9F4120A1}" name="Nr. De titluri"/>
-    <tableColumn id="3" xr3:uid="{DB91F5B4-97A0-4C3C-B6DE-6FB015520825}" name="Media" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{DB91F5B4-97A0-4C3C-B6DE-6FB015520825}" name="Media" dataDxfId="6">
       <calculatedColumnFormula>AVERAGEIF(Carti[Limba],Table4[[#This Row],[Limba]],Carti[Pret])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3490,15 +3272,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3791BBA-5D3F-4C07-9363-23F36BA55164}" name="Supplier" displayName="Supplier" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{A3791BBA-5D3F-4C07-9363-23F36BA55164}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B34BC9C6-31ED-4010-8BCF-072EB6613734}" uniqueName="1" name="Id_supplier" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4F0C1F05-1AE3-48D0-8F7F-BA0423DD8910}" uniqueName="2" name="Nume_sup" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4CC1E7BC-12F9-45D1-8E64-52EF40C09C27}" uniqueName="3" name="Adresa_sup" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{548BDE5C-7922-40D7-8118-97CE8EB26582}" uniqueName="4" name="Nr. telefon" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{5B852827-A4D6-4AC3-A2BD-A29D279FD845}" uniqueName="5" name="Nr. Titluri de Carti" queryTableFieldId="5" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{B34BC9C6-31ED-4010-8BCF-072EB6613734}" uniqueName="1" name="Id_supplier" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4F0C1F05-1AE3-48D0-8F7F-BA0423DD8910}" uniqueName="2" name="Nume_sup" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4CC1E7BC-12F9-45D1-8E64-52EF40C09C27}" uniqueName="3" name="Adresa_sup" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{548BDE5C-7922-40D7-8118-97CE8EB26582}" uniqueName="4" name="Nr. telefon" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5B852827-A4D6-4AC3-A2BD-A29D279FD845}" uniqueName="5" name="Nr. Titluri de Carti" queryTableFieldId="5" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(Carti[Sup_id],Supplier[[#This Row],[Id_supplier]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3506,7 +3288,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{80C4739A-CFA4-42FA-8298-1814E99B9262}" name="Table6" displayName="Table6" ref="A1:A6" totalsRowShown="0">
   <autoFilter ref="A1:A6" xr:uid="{80C4739A-CFA4-42FA-8298-1814E99B9262}"/>
   <tableColumns count="1">
@@ -3779,205 +3561,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05A215A-C689-43DE-A40B-55030CC3AF07}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="16">
         <v>1</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="L1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>2</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <f>INDEX(Tabel5[Nume],MATCH(O1,Tabel5[Ordine]))</f>
+        <v>Baltagul</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I3" t="str" cm="1">
         <f t="array" ref="I3">INDEX(E1:E5,I2,1)</f>
-        <v>VaseaCumparaturi</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+        <v>PenguinBooks</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="L4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>5</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="L5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="L6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="L7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="L8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="L9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="L10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="L11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="L12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="L13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="L14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="L15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="L16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="L17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="L18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>1</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3997,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61368891-F50C-4C0D-A1DA-6BA294FD592E}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,8 +3929,8 @@
     <col min="22" max="22" width="4.42578125" customWidth="1"/>
     <col min="23" max="23" width="5.42578125" customWidth="1"/>
     <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="25" width="53.85546875" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" customWidth="1"/>
+    <col min="25" max="25" width="57.42578125" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" customWidth="1"/>
     <col min="29" max="29" width="46.7109375" customWidth="1"/>
     <col min="30" max="30" width="18.42578125" customWidth="1"/>
   </cols>
@@ -4071,7 +3989,7 @@
       <c r="H2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2"/>
       <c r="Y2" s="3" t="s">
         <v>115</v>
       </c>
@@ -4101,12 +4019,12 @@
       <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="X3" s="14" t="s">
+      <c r="I3"/>
+      <c r="X3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Y3" s="13" t="s">
-        <v>40</v>
+      <c r="Y3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4134,7 +4052,7 @@
       <c r="H4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4"/>
       <c r="AC4" s="3" t="s">
         <v>117</v>
       </c>
@@ -4167,13 +4085,13 @@
       <c r="H5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5"/>
       <c r="AC5" s="3" t="str" cm="1">
-        <f t="array" ref="AC5:AD7">_xlfn._xlws.FILTER(Foaie1!$A$1:$B$19,Foaie1!$B$1:$B$19=Foaie1!$I$2)</f>
-        <v>CarnatTeo</v>
+        <f t="array" ref="AC5:AD11">_xlfn._xlws.FILTER(Foaie1!$A$1:$B$19,Foaie1!$B$1:$B$19=Foaie1!$I$2)</f>
+        <v>TheGreatGatsby</v>
       </c>
       <c r="AD5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4203,10 +4121,10 @@
       </c>
       <c r="I6" s="7"/>
       <c r="AC6" s="3" t="str">
-        <v>1964:Eyes_of_the_Sotrm</v>
+        <v>TheCatcherInTheRye</v>
       </c>
       <c r="AD6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,12 +4152,12 @@
       <c r="H7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7"/>
       <c r="AC7" s="3" t="str">
-        <v>Iron_Flame</v>
+        <v>Baltagul</v>
       </c>
       <c r="AD7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,7 +4185,13 @@
       <c r="H8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8"/>
+      <c r="AC8" s="3" t="str">
+        <v>HarryPotter</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -4294,7 +4218,13 @@
       <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9"/>
+      <c r="AC9" s="3" t="str">
+        <v>TheHandmaidsTale</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -4321,7 +4251,13 @@
       <c r="H10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10"/>
+      <c r="AC10" s="3" t="str">
+        <v>ReadyPlayerOne</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4348,7 +4284,13 @@
       <c r="H11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11"/>
+      <c r="AC11" s="3" t="str">
+        <v>The_Hitchhiker's_Guide_to_the_Galaxy</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -4375,7 +4317,7 @@
       <c r="H12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -4402,7 +4344,7 @@
       <c r="H13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -4429,7 +4371,7 @@
       <c r="H14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -4456,7 +4398,7 @@
       <c r="H15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -4483,9 +4425,9 @@
       <c r="H16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4510,9 +4452,9 @@
       <c r="H17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -4537,9 +4479,9 @@
       <c r="H18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -4564,9 +4506,9 @@
       <c r="H19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -4591,11 +4533,12 @@
       <c r="H20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20"/>
+      <c r="Y20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{D5EEE544-6223-46E6-9D8D-DF9BFAD2F151}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{1C9F3018-FB99-44E0-8453-7743FEE1BED0}">
       <formula1>$A$2:$A$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/Librarie/Excel/librarie.xlsx
+++ b/Librarie/Excel/librarie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab106(35)\Desktop\CollegePractice\Librarie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B88D2-D5D9-44C3-A7FC-337EA866AEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968BCB8-468E-4A53-A630-4BF3775D4485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Limbe" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="CEVA">INDEX('Carti'!$I$2:$I$20,MATCH('Carti'!$Y$3,'Carti'!$A$2:$A$20))</definedName>
+    <definedName name="CEVA">INDEX(Foaie1!$K$2:$K$20,MATCH(Foaie1!$P$1,Tabel5[Ordine]))</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Carti'!$A$1:$H$20</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">Supplier!$A$1:$D$6</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="122">
   <si>
     <t>TheGreatGatsby</t>
   </si>
@@ -442,13 +442,19 @@
   </si>
   <si>
     <t>Ordine</t>
+  </si>
+  <si>
+    <t>Coloană1</t>
+  </si>
+  <si>
+    <t>Imagine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +538,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,7 +653,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
@@ -688,6 +701,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bun" xfId="1" builtinId="26"/>
@@ -696,33 +711,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="-0.249977111117893"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -924,6 +912,33 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="-0.249977111117893"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1883,7 +1898,1164 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="Foaie1!$I$2" fmlaRange="Foaie1!$E$1:$E$5" noThreeD="1" sel="1" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="Foaie1!$P$1" fmlaRange="Foaie1!$L$2:$L$20" noThreeD="1" sel="14" val="11"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147889</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519363</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>514257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE7DE81-4DD9-4FC9-867C-125A088013F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263942" y="3786941"/>
+          <a:ext cx="371474" cy="487184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60158</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574507</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>465521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagine 2" descr="Agenda 2021 - Ultra, Day-at-a-Time - Aurelia - Paperblanks">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072280A7-DBD7-440F-AE14-129C8729A45A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6176211" y="4429626"/>
+          <a:ext cx="514349" cy="337184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58832</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1211356</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>812897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagine 3" descr="Sausage Made Simple - Flocchini Sausage">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF30C67-5381-4584-B2C4-A8FE5D951291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10783982" y="6684870"/>
+          <a:ext cx="1152524" cy="766952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>931244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagine 4" descr="Pageturners Bookstore | Fourth Wing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456BE155-2858-4D48-A3E6-E307C6E62EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991851" y="7772400"/>
+          <a:ext cx="704849" cy="864569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>995112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagine 5" descr="Paul McCartney va publica un nou volum de fotografii - 1964: Eyes of the  Storm">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB883AB1-EDCF-4116-9D45-00A94F1E8314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934701" y="8801100"/>
+          <a:ext cx="838200" cy="966537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>922912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagine 6" descr="Iron Flame by Rebecca Yarros, Hardcover | Barnes &amp; Noble®">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946289B0-6796-4A5F-8DA2-E2FC58001DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11077576" y="9886951"/>
+          <a:ext cx="570486" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1038016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagine 7" descr="The Book of Charlie : Wisdom from the Remarkable American Life of a  109-Year-Old Man (Hardcover) - Walmart.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8426E0D3-FCF6-4B31-A1F9-D8D1555778C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11039475" y="10934701"/>
+          <a:ext cx="657225" cy="1009440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1004545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagine 8" descr="Harry Potter | Harry Potter Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804593D2-5136-4E98-887E-342C8D0125D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10906125" y="12011026"/>
+          <a:ext cx="723900" cy="966444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1021453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagine 9" descr="The Lord of the Rings: The Fellowship of the Ring (2001) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA98DBF3-2A84-4413-BA20-C8A00E06465C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10953750" y="13068300"/>
+          <a:ext cx="666750" cy="992878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>937932</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>987800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagine 10" descr="paulo coelho - the alchemist - First Edition - AbeBooks">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DD3AD7-03D7-4B00-8292-FF79A76C5BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10929657" y="14140143"/>
+          <a:ext cx="733425" cy="954182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1008305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagine 11" descr="The Handmaid's Tale (TV Series 2017– ) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7CF182-49ED-4251-B538-3EB8F92235CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10953750" y="15192376"/>
+          <a:ext cx="666750" cy="989254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>902258</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagine 12" descr="The Martian (2015) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F362EA7F-1A4B-4945-BDF9-A46139D2BB7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991850" y="16259175"/>
+          <a:ext cx="635558" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1014070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagine 13" descr="Watch Ready Player One | Prime Video">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190A8330-20F6-49C6-819C-E7C1D0067557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934700" y="17354551"/>
+          <a:ext cx="723900" cy="966444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>986228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagine 14" descr="Red Rising: 8601422201284: Pierce Brown: Books - Amazon.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D2BA06-4283-4162-A6B7-D4287F010E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10982325" y="18411825"/>
+          <a:ext cx="628650" cy="948128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1020452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagine 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CA1C4E-1CC1-4CE8-8A52-9CB40587FF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10944225" y="19469100"/>
+          <a:ext cx="742950" cy="991877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77261</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>797092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagine 16" descr="The Great Gatsby (2013) - IMDb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8CE39C-4783-4DCE-93AB-8171EA35490D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6193314" y="326740"/>
+          <a:ext cx="471865" cy="710984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>531393</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1130788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagine 17" descr="To Kill a Mockingbird - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF50021-A5D7-40F8-AE45-B0E35D02D80C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6261139" y="1290446"/>
+          <a:ext cx="386307" cy="968303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188731</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525467</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>612708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagine 18" descr="Pride and Prejudice - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D489AE-F361-4DDE-B9B9-82ADEE667D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6304784" y="2330823"/>
+          <a:ext cx="336736" cy="592951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526355</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>803490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagine 19" descr="The Catcher in the Rye - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BB3C00-E1D2-4A09-ADD8-57BFCD5BE995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6221329" y="2965134"/>
+          <a:ext cx="421079" cy="786093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3134,22 +4306,22 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>129188</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>55147</xdr:rowOff>
+          <xdr:colOff>146507</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>20511</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>1243942</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1019736</xdr:rowOff>
+          <xdr:colOff>1261261</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>985100</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Imagine 23" descr="The Great Gatsby (2013) - IMDb">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A05BB62-2A40-4E3A-88B1-2E3A5E7A7204}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3157,7 +4329,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="CEVA" spid="_x0000_s1065"/>
+                  <a14:cameraTool cellRange="CEVA" spid="_x0000_s1069"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3171,7 +4343,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="25073482" y="2419588"/>
+              <a:off x="25136643" y="1336693"/>
               <a:ext cx="1114754" cy="964589"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3189,6 +4361,64 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Drop Down 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
@@ -3230,29 +4460,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}" name="Tabel5" displayName="Tabel5" ref="L1:M20" totalsRowShown="0">
-  <autoFilter ref="L1:M20" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8528086D-77B2-4FF0-95BB-94F67C960DA2}" name="Nume" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}" name="Tabel5" displayName="Tabel5" ref="L1:N20" totalsRowShown="0">
+  <autoFilter ref="L1:N20" xr:uid="{D715FFA4-0716-4174-819E-99B1239C7D4D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8528086D-77B2-4FF0-95BB-94F67C960DA2}" name="Nume" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{0350D85C-A695-4F9C-82B7-A257E6D5952E}" name="Ordine"/>
+    <tableColumn id="3" xr3:uid="{905760F6-3281-450D-83A2-C6D06E76E6BC}" name="Coloană1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}" name="Carti" displayName="Carti" ref="A1:I20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}" name="Carti" displayName="Carti" ref="A1:I20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I20" xr:uid="{A1921B01-38DA-43A5-A77F-F3FB8ADEC070}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CC563222-B098-4D38-AFE4-8347877797FD}" uniqueName="1" name="Nume" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5479B87A-A568-4FF1-AF6C-6AF5A0325253}" uniqueName="2" name="Autor" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{65D7075D-00FC-41D3-A25B-D5162A974AED}" uniqueName="3" name="An" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B0E1D44C-427F-45B4-9A02-E3BDAAA0DB42}" uniqueName="4" name="Limba" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1AC09EC0-8DBB-44FF-9949-D1BCCA568EB0}" uniqueName="5" name="Tip" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{E83E9B9D-C877-406F-A06E-F8244B896B58}" uniqueName="6" name="Pret" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{C8250505-CF37-45F3-94B2-160167738E35}" uniqueName="7" name="Copii" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DC1BE33A-D8EF-4906-9184-F8A5B732C8FB}" uniqueName="8" name="Sup_id" queryTableFieldId="8" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{F5F60F92-AAF0-4D82-90A9-44229CBC0761}" uniqueName="9" name="Coperta" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CC563222-B098-4D38-AFE4-8347877797FD}" uniqueName="1" name="Nume" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5479B87A-A568-4FF1-AF6C-6AF5A0325253}" uniqueName="2" name="Autor" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{65D7075D-00FC-41D3-A25B-D5162A974AED}" uniqueName="3" name="An" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B0E1D44C-427F-45B4-9A02-E3BDAAA0DB42}" uniqueName="4" name="Limba" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1AC09EC0-8DBB-44FF-9949-D1BCCA568EB0}" uniqueName="5" name="Tip" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E83E9B9D-C877-406F-A06E-F8244B896B58}" uniqueName="6" name="Pret" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C8250505-CF37-45F3-94B2-160167738E35}" uniqueName="7" name="Copii" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{DC1BE33A-D8EF-4906-9184-F8A5B732C8FB}" uniqueName="8" name="Sup_id" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{F5F60F92-AAF0-4D82-90A9-44229CBC0761}" uniqueName="9" name="Coperta" queryTableFieldId="9" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3264,7 +4495,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BD129767-CCC1-4593-9478-2AF6B4DF31D9}" name="Limba"/>
     <tableColumn id="2" xr3:uid="{5C13F366-E979-4357-B093-F09E9F4120A1}" name="Nr. De titluri"/>
-    <tableColumn id="3" xr3:uid="{DB91F5B4-97A0-4C3C-B6DE-6FB015520825}" name="Media" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{DB91F5B4-97A0-4C3C-B6DE-6FB015520825}" name="Media" dataDxfId="5">
       <calculatedColumnFormula>AVERAGEIF(Carti[Limba],Table4[[#This Row],[Limba]],Carti[Pret])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3276,11 +4507,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3791BBA-5D3F-4C07-9363-23F36BA55164}" name="Supplier" displayName="Supplier" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{A3791BBA-5D3F-4C07-9363-23F36BA55164}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B34BC9C6-31ED-4010-8BCF-072EB6613734}" uniqueName="1" name="Id_supplier" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4F0C1F05-1AE3-48D0-8F7F-BA0423DD8910}" uniqueName="2" name="Nume_sup" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4CC1E7BC-12F9-45D1-8E64-52EF40C09C27}" uniqueName="3" name="Adresa_sup" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{548BDE5C-7922-40D7-8118-97CE8EB26582}" uniqueName="4" name="Nr. telefon" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5B852827-A4D6-4AC3-A2BD-A29D279FD845}" uniqueName="5" name="Nr. Titluri de Carti" queryTableFieldId="5" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{B34BC9C6-31ED-4010-8BCF-072EB6613734}" uniqueName="1" name="Id_supplier" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4F0C1F05-1AE3-48D0-8F7F-BA0423DD8910}" uniqueName="2" name="Nume_sup" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4CC1E7BC-12F9-45D1-8E64-52EF40C09C27}" uniqueName="3" name="Adresa_sup" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{548BDE5C-7922-40D7-8118-97CE8EB26582}" uniqueName="4" name="Nr. telefon" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5B852827-A4D6-4AC3-A2BD-A29D279FD845}" uniqueName="5" name="Nr. Titluri de Carti" queryTableFieldId="5" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Carti[Sup_id],Supplier[[#This Row],[Id_supplier]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3561,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05A215A-C689-43DE-A40B-55030CC3AF07}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +4804,7 @@
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3586,17 +4817,26 @@
       <c r="E1" s="17" t="s">
         <v>85</v>
       </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
       <c r="L1" s="14" t="s">
         <v>46</v>
       </c>
       <c r="M1" t="s">
         <v>119</v>
       </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
       <c r="O1">
         <v>5</v>
       </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -3612,6 +4852,7 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="K2" s="21"/>
       <c r="L2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +4864,7 @@
         <v>Baltagul</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -3640,6 +4881,7 @@
         <f t="array" ref="I3">INDEX(E1:E5,I2,1)</f>
         <v>PenguinBooks</v>
       </c>
+      <c r="K3" s="22"/>
       <c r="L3" s="15" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -3660,6 +4902,7 @@
       <c r="E4" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="K4" s="21"/>
       <c r="L4" s="14" t="s">
         <v>6</v>
       </c>
@@ -3667,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -3680,6 +4923,7 @@
       <c r="E5" s="19" t="s">
         <v>97</v>
       </c>
+      <c r="K5" s="22"/>
       <c r="L5" s="15" t="s">
         <v>8</v>
       </c>
@@ -3687,13 +4931,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16">
         <v>3</v>
       </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
         <v>10</v>
       </c>
@@ -3701,13 +4946,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="16">
         <v>4</v>
       </c>
+      <c r="K7" s="22"/>
       <c r="L7" s="15" t="s">
         <v>14</v>
       </c>
@@ -3715,13 +4961,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="16">
         <v>5</v>
       </c>
+      <c r="K8" s="21"/>
       <c r="L8" s="14" t="s">
         <v>17</v>
       </c>
@@ -3729,13 +4976,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="16">
         <v>4</v>
       </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="15" t="s">
         <v>19</v>
       </c>
@@ -3743,13 +4991,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="16">
         <v>4</v>
       </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="14" t="s">
         <v>22</v>
       </c>
@@ -3757,13 +5006,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="16">
         <v>3</v>
       </c>
+      <c r="K11" s="22"/>
       <c r="L11" s="15" t="s">
         <v>25</v>
       </c>
@@ -3771,13 +5021,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
@@ -3785,13 +5036,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16">
         <v>2</v>
       </c>
+      <c r="K13" s="22"/>
       <c r="L13" s="15" t="s">
         <v>30</v>
       </c>
@@ -3799,13 +5051,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="16">
         <v>3</v>
       </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="14" t="s">
         <v>32</v>
       </c>
@@ -3813,13 +5066,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="15" t="s">
         <v>34</v>
       </c>
@@ -3827,18 +5081,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="16">
         <v>2</v>
       </c>
+      <c r="K16" s="21"/>
       <c r="L16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="M16">
         <v>15</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -3848,6 +5106,7 @@
       <c r="B17" s="16">
         <v>1</v>
       </c>
+      <c r="K17" s="22"/>
       <c r="L17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3862,6 +5121,7 @@
       <c r="B18" s="16">
         <v>2</v>
       </c>
+      <c r="K18" s="21"/>
       <c r="L18" s="14" t="s">
         <v>40</v>
       </c>
@@ -3876,6 +5136,7 @@
       <c r="B19" s="16">
         <v>1</v>
       </c>
+      <c r="K19" s="22"/>
       <c r="L19" s="15" t="s">
         <v>42</v>
       </c>
@@ -3884,6 +5145,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K20" s="21"/>
       <c r="L20" s="14" t="s">
         <v>44</v>
       </c>
@@ -3893,8 +5155,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3915,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61368891-F50C-4C0D-A1DA-6BA294FD592E}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,9 +5286,6 @@
       <c r="X3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4507,6 +5767,7 @@
         <v>58</v>
       </c>
       <c r="I19"/>
+      <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -4537,11 +5798,6 @@
       <c r="Y20"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{1C9F3018-FB99-44E0-8453-7743FEE1BED0}">
-      <formula1>$A$2:$A$20</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4571,11 +5827,33 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId5" name="Drop Down 43">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>24</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>25</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
